--- a/template/FileStudents.xlsx
+++ b/template/FileStudents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\student-attendance-v2\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057682A1-B554-4A78-B241-B2699FDA2117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D799E-28E3-43B0-A1D7-ABDB31CCD296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AA50B406-2742-4CEB-A68F-78C65228DA79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -42,45 +42,12 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BKC1088</t>
-  </si>
-  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
     <t>LTMT 01</t>
   </si>
   <si>
-    <t>BKC1089</t>
-  </si>
-  <si>
-    <t>LTMT 02</t>
-  </si>
-  <si>
-    <t>BKC1090</t>
-  </si>
-  <si>
-    <t>LTMT 03</t>
-  </si>
-  <si>
-    <t>BKC1091</t>
-  </si>
-  <si>
-    <t>LTMT 04</t>
-  </si>
-  <si>
-    <t>BKC1092</t>
-  </si>
-  <si>
-    <t>LTMT 05</t>
-  </si>
-  <si>
-    <t>BKC1093</t>
-  </si>
-  <si>
-    <t>LTMT 06</t>
-  </si>
-  <si>
     <t>Nguyễn Văn B</t>
   </si>
   <si>
@@ -91,6 +58,48 @@
   </si>
   <si>
     <t>Nguyễn Văn E</t>
+  </si>
+  <si>
+    <t>CD193850</t>
+  </si>
+  <si>
+    <t>CD193885</t>
+  </si>
+  <si>
+    <t>CD193880</t>
+  </si>
+  <si>
+    <t>CD193662</t>
+  </si>
+  <si>
+    <t>CD193606</t>
+  </si>
+  <si>
+    <t>CD193873</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn G</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn H</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn I</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn J</t>
+  </si>
+  <si>
+    <t>CD193699</t>
+  </si>
+  <si>
+    <t>CD193888</t>
+  </si>
+  <si>
+    <t>CD193862</t>
+  </si>
+  <si>
+    <t>CD193613</t>
   </si>
   <si>
     <t>Nguyễn Văn F</t>
@@ -118,21 +127,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF3F3F76"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -188,16 +203,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -513,139 +538,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAEAB22-F1B7-4F48-B474-B43B7BE7A93F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D11" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
